--- a/AutoLoader/Contents/Support/室内机配置表.xlsx
+++ b/AutoLoader/Contents/Support/室内机配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="两管制风机盘管-工况1" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="279">
   <si>
     <t>形式</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -240,15 +240,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DN20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>l/s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1153,6 +1145,22 @@
       </rPr>
       <t>/h</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1552,11 +1560,20 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,21 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,7 +1605,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,10 +1620,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,15 +1646,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2199,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2239,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2274,189 +2282,189 @@
       <c r="AI1" s="49"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="51" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="51" t="s">
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="51" t="s">
+      <c r="Z2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AH2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="53" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="61" t="s">
+      <c r="V3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB3" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="51"/>
       <c r="AD3" s="21"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AE3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="54"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="57"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="61"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="51"/>
       <c r="AD4" s="21" t="s">
         <v>34</v>
       </c>
@@ -2466,13 +2474,13 @@
       <c r="AF4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="54"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="57"/>
     </row>
     <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>26</v>
@@ -2513,7 +2521,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>48</v>
@@ -2528,7 +2536,7 @@
         <v>24</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="V5" s="21" t="s">
         <v>26</v>
@@ -2537,34 +2545,34 @@
         <v>27</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="AF5" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="21" t="s">
         <v>31</v>
@@ -2573,10 +2581,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>340</v>
@@ -2585,7 +2593,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
         <v>39</v>
@@ -2609,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" s="21">
         <v>1.6</v>
@@ -2634,7 +2642,7 @@
         <v>50</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V6" s="21">
         <v>1.6</v>
@@ -2659,27 +2667,27 @@
         <v>437</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -2688,7 +2696,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>53</v>
@@ -2712,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" s="21">
         <v>1.6</v>
@@ -2737,7 +2745,7 @@
         <v>50</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" s="21">
         <v>1.6</v>
@@ -2762,27 +2770,27 @@
         <v>437</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AD7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>680</v>
@@ -2791,7 +2799,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1">
         <v>72</v>
@@ -2815,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" s="21">
         <v>1.6</v>
@@ -2840,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V8" s="21">
         <v>1.6</v>
@@ -2865,27 +2873,27 @@
         <v>437</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>850</v>
@@ -2894,7 +2902,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>83</v>
@@ -2918,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="21">
         <v>1.6</v>
@@ -2943,7 +2951,7 @@
         <v>50</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="21">
         <v>1.6</v>
@@ -2968,29 +2976,29 @@
         <v>437</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
         <v>1020</v>
@@ -2999,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1">
         <v>107</v>
@@ -3023,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N10" s="21">
         <v>1.6</v>
@@ -3048,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" s="21">
         <v>1.6</v>
@@ -3073,29 +3081,29 @@
         <v>437</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>1360</v>
@@ -3104,7 +3112,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1">
         <v>142</v>
@@ -3128,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N11" s="21">
         <v>1.6</v>
@@ -3153,7 +3161,7 @@
         <v>50</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V11" s="21">
         <v>1.6</v>
@@ -3178,29 +3186,29 @@
         <v>437</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>1700</v>
@@ -3209,7 +3217,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1">
         <v>174</v>
@@ -3233,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" s="21">
         <v>1.6</v>
@@ -3258,7 +3266,7 @@
         <v>50</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V12" s="21">
         <v>1.6</v>
@@ -3283,29 +3291,29 @@
         <v>437</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>2040</v>
@@ -3314,7 +3322,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>217</v>
@@ -3338,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N13" s="21">
         <v>1.6</v>
@@ -3363,7 +3371,7 @@
         <v>50</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V13" s="21">
         <v>1.6</v>
@@ -3388,19 +3396,19 @@
         <v>437</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="4"/>
@@ -3408,26 +3416,6 @@
     <row r="14" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="AG2:AG4"/>
     <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="AI2:AI4"/>
@@ -3444,6 +3432,26 @@
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -3461,7 +3469,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3498,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3533,189 +3541,189 @@
       <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="51" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="51" t="s">
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="51" t="s">
+      <c r="Z2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AH2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="53" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="61" t="s">
+      <c r="V3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB3" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="52"/>
+      <c r="AC3" s="53"/>
       <c r="AD3" s="21"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AE3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="54"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="57"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
       <c r="AD4" s="21" t="s">
         <v>0</v>
       </c>
@@ -3725,13 +3733,13 @@
       <c r="AF4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="54"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="57"/>
     </row>
     <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>26</v>
@@ -3772,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>48</v>
@@ -3787,7 +3795,7 @@
         <v>24</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="V5" s="21" t="s">
         <v>26</v>
@@ -3796,34 +3804,34 @@
         <v>27</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH5" s="21" t="s">
         <v>31</v>
@@ -3832,10 +3840,10 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>340</v>
@@ -3844,7 +3852,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
         <v>41</v>
@@ -3868,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" s="21">
         <v>1.6</v>
@@ -3893,7 +3901,7 @@
         <v>50</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V6" s="21">
         <v>1.6</v>
@@ -3918,27 +3926,27 @@
         <v>437</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -3947,7 +3955,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>56</v>
@@ -3971,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" s="21">
         <v>1.6</v>
@@ -3996,7 +4004,7 @@
         <v>50</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V7" s="21">
         <v>1.6</v>
@@ -4021,27 +4029,27 @@
         <v>437</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AD7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>680</v>
@@ -4050,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1">
         <v>72</v>
@@ -4074,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N8" s="21">
         <v>1.6</v>
@@ -4099,7 +4107,7 @@
         <v>50</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V8" s="21">
         <v>1.6</v>
@@ -4124,27 +4132,27 @@
         <v>437</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>850</v>
@@ -4153,7 +4161,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>83</v>
@@ -4177,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N9" s="21">
         <v>1.6</v>
@@ -4202,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V9" s="21">
         <v>1.6</v>
@@ -4227,29 +4235,29 @@
         <v>437</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>1020</v>
@@ -4258,7 +4266,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1">
         <v>107</v>
@@ -4282,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N10" s="21">
         <v>1.6</v>
@@ -4307,7 +4315,7 @@
         <v>50</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V10" s="21">
         <v>1.6</v>
@@ -4332,29 +4340,29 @@
         <v>437</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>1360</v>
@@ -4363,7 +4371,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1">
         <v>150</v>
@@ -4387,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N11" s="21">
         <v>1.6</v>
@@ -4412,7 +4420,7 @@
         <v>50</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V11" s="21">
         <v>1.6</v>
@@ -4437,29 +4445,29 @@
         <v>437</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>1700</v>
@@ -4468,7 +4476,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1">
         <v>174</v>
@@ -4492,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N12" s="21">
         <v>1.6</v>
@@ -4517,7 +4525,7 @@
         <v>50</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V12" s="21">
         <v>1.6</v>
@@ -4542,29 +4550,29 @@
         <v>437</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <v>2040</v>
@@ -4573,7 +4581,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>212</v>
@@ -4597,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N13" s="21">
         <v>1.6</v>
@@ -4622,7 +4630,7 @@
         <v>50</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V13" s="21">
         <v>1.6</v>
@@ -4647,19 +4655,19 @@
         <v>437</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="4"/>
@@ -4703,31 +4711,11 @@
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="AI2:AI4"/>
     <mergeCell ref="C3:C4"/>
@@ -4744,6 +4732,26 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:Y4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4789,150 +4797,150 @@
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="65" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68" t="s">
+      <c r="M2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="O2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64" t="s">
+      <c r="F3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="57"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="64" t="s">
+      <c r="D4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="54"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
       <c r="T4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="54"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="57"/>
     </row>
     <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>24</v>
@@ -4944,7 +4952,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>24</v>
@@ -4953,7 +4961,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>21</v>
@@ -4962,37 +4970,37 @@
         <v>22</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W5" s="22" t="s">
         <v>31</v>
@@ -5000,7 +5008,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="25">
         <v>2.8</v>
@@ -5012,7 +5020,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="25">
         <v>2.5</v>
@@ -5021,7 +5029,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="6">
         <v>510</v>
@@ -5030,16 +5038,16 @@
         <v>80</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L6" s="25">
         <v>96</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O6" s="3">
         <v>550</v>
@@ -5051,23 +5059,23 @@
         <v>700</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="25">
         <v>3.6</v>
@@ -5079,7 +5087,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6">
         <v>3.2</v>
@@ -5088,7 +5096,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I7" s="6">
         <v>510</v>
@@ -5097,16 +5105,16 @@
         <v>80</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L7" s="25">
         <v>96</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O7" s="3">
         <v>550</v>
@@ -5118,23 +5126,23 @@
         <v>700</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="25">
         <v>3.6</v>
@@ -5146,7 +5154,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6">
         <v>4</v>
@@ -5155,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="6">
         <v>510</v>
@@ -5164,16 +5172,16 @@
         <v>80</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="25">
         <v>96</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O8" s="3">
         <v>550</v>
@@ -5185,23 +5193,23 @@
         <v>700</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="25">
         <v>4</v>
@@ -5213,7 +5221,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6">
         <v>4.5</v>
@@ -5222,7 +5230,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="6">
         <v>570</v>
@@ -5231,16 +5239,16 @@
         <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L9" s="6">
         <v>104</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
@@ -5252,23 +5260,23 @@
         <v>700</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="25">
         <v>4.5</v>
@@ -5280,7 +5288,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -5289,7 +5297,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I10" s="6">
         <v>570</v>
@@ -5298,16 +5306,16 @@
         <v>80</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L10" s="6">
         <v>104</v>
       </c>
       <c r="M10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
@@ -5319,23 +5327,23 @@
         <v>700</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="25">
         <v>5</v>
@@ -5347,7 +5355,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="6">
         <v>5.6</v>
@@ -5356,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" s="6">
         <v>1050</v>
@@ -5365,16 +5373,16 @@
         <v>80</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="6">
         <v>151</v>
       </c>
       <c r="M11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O11" s="3">
         <v>1000</v>
@@ -5386,25 +5394,25 @@
         <v>700</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="25">
         <v>5.6</v>
@@ -5416,7 +5424,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F12" s="6">
         <v>6.3</v>
@@ -5425,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I12" s="6">
         <v>1050</v>
@@ -5434,16 +5442,16 @@
         <v>80</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L12" s="6">
         <v>151</v>
       </c>
       <c r="M12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
@@ -5455,25 +5463,25 @@
         <v>700</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="25">
         <v>6.3</v>
@@ -5485,7 +5493,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="6">
         <v>7.1</v>
@@ -5494,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I13" s="6">
         <v>1050</v>
@@ -5503,16 +5511,16 @@
         <v>80</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L13" s="6">
         <v>151</v>
       </c>
       <c r="M13" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O13" s="3">
         <v>1000</v>
@@ -5524,25 +5532,25 @@
         <v>700</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="25">
         <v>7.1</v>
@@ -5554,7 +5562,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="6">
         <v>8</v>
@@ -5563,7 +5571,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I14" s="6">
         <v>1050</v>
@@ -5572,16 +5580,16 @@
         <v>80</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" s="6">
         <v>151</v>
       </c>
       <c r="M14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O14" s="3">
         <v>1000</v>
@@ -5593,25 +5601,25 @@
         <v>700</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" s="25">
         <v>8</v>
@@ -5623,7 +5631,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" s="6">
         <v>9</v>
@@ -5632,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" s="6">
         <v>1050</v>
@@ -5641,16 +5649,16 @@
         <v>80</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L15" s="6">
         <v>151</v>
       </c>
       <c r="M15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O15" s="3">
         <v>1000</v>
@@ -5662,25 +5670,25 @@
         <v>700</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="25">
         <v>9</v>
@@ -5692,7 +5700,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="6">
         <v>10</v>
@@ -5701,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I16" s="6">
         <v>1420</v>
@@ -5710,16 +5718,16 @@
         <v>100</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L16" s="6">
         <v>194</v>
       </c>
       <c r="M16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O16" s="3">
         <v>1400</v>
@@ -5731,25 +5739,25 @@
         <v>700</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="25">
         <v>10</v>
@@ -5761,7 +5769,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="6">
         <v>11.2</v>
@@ -5770,7 +5778,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I17" s="6">
         <v>1420</v>
@@ -5779,16 +5787,16 @@
         <v>80</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L17" s="6">
         <v>194</v>
       </c>
       <c r="M17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="O17" s="3">
         <v>1400</v>
@@ -5800,25 +5808,25 @@
         <v>700</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="25">
         <v>11.2</v>
@@ -5830,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="6">
         <v>12.5</v>
@@ -5839,7 +5847,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I18" s="6">
         <v>1680</v>
@@ -5848,16 +5856,16 @@
         <v>100</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="6">
         <v>228</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O18" s="3">
         <v>1400</v>
@@ -5869,25 +5877,25 @@
         <v>700</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="25">
         <v>12.5</v>
@@ -5899,7 +5907,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="6">
         <v>14</v>
@@ -5908,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="6">
         <v>1680</v>
@@ -5917,16 +5925,16 @@
         <v>80</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L19" s="6">
         <v>228</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O19" s="3">
         <v>1400</v>
@@ -5938,25 +5946,25 @@
         <v>700</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="25">
         <v>14</v>
@@ -5968,7 +5976,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="6">
         <v>16</v>
@@ -5977,7 +5985,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I20" s="6">
         <v>1980</v>
@@ -5986,16 +5994,16 @@
         <v>80</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="6">
         <v>274</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O20" s="3">
         <v>1400</v>
@@ -6007,25 +6015,25 @@
         <v>700</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" s="25">
         <v>15</v>
@@ -6037,7 +6045,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="6">
         <v>17</v>
@@ -6046,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I21" s="6">
         <v>2340</v>
@@ -6055,16 +6063,16 @@
         <v>80</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L21" s="6">
         <v>325</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O21" s="3">
         <v>1400</v>
@@ -6076,25 +6084,25 @@
         <v>700</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="11">
         <v>16</v>
@@ -6106,7 +6114,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="12">
         <v>18</v>
@@ -6115,7 +6123,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I22" s="12">
         <v>2340</v>
@@ -6124,16 +6132,16 @@
         <v>80</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L22" s="12">
         <v>325</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O22" s="14">
         <v>1400</v>
@@ -6145,39 +6153,29 @@
         <v>700</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W22" s="15"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="T3:U3"/>
@@ -6193,6 +6191,16 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -6233,121 +6241,121 @@
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="65" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68" t="s">
+      <c r="M2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="O2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="F3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="64" t="s">
+      <c r="D4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="70"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="25" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="70"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="70"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>24</v>
@@ -6359,7 +6367,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>24</v>
@@ -6368,7 +6376,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>21</v>
@@ -6377,30 +6385,30 @@
         <v>22</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="25">
         <v>2.8</v>
@@ -6412,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="25">
         <v>3.2</v>
@@ -6421,13 +6429,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" s="6">
         <v>750</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>32</v>
@@ -6436,10 +6444,10 @@
         <v>53</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O6" s="3">
         <v>840</v>
@@ -6454,7 +6462,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B7" s="25">
         <v>3.6</v>
@@ -6466,7 +6474,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -6475,25 +6483,25 @@
         <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" s="6">
         <v>750</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L7" s="25">
         <v>53</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O7" s="3">
         <v>840</v>
@@ -6508,7 +6516,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="25">
         <v>4</v>
@@ -6520,7 +6528,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="6">
         <v>4.5</v>
@@ -6529,25 +6537,25 @@
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="6">
         <v>810</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="6">
         <v>63</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O8" s="3">
         <v>840</v>
@@ -6562,7 +6570,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="25">
         <v>4.5</v>
@@ -6574,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
@@ -6583,25 +6591,25 @@
         <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="6">
         <v>810</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L9" s="6">
         <v>63</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O9" s="3">
         <v>840</v>
@@ -6616,7 +6624,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="25">
         <v>5</v>
@@ -6628,7 +6636,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="6">
         <v>5.6</v>
@@ -6637,25 +6645,25 @@
         <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" s="6">
         <v>920</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L10" s="6">
         <v>74</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O10" s="3">
         <v>840</v>
@@ -6670,7 +6678,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="25">
         <v>5.6</v>
@@ -6682,7 +6690,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="6">
         <v>6.3</v>
@@ -6691,25 +6699,25 @@
         <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I11" s="6">
         <v>920</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="6">
         <v>74</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O11" s="3">
         <v>840</v>
@@ -6724,7 +6732,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="25">
         <v>6.3</v>
@@ -6736,7 +6744,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" s="6">
         <v>7.1</v>
@@ -6745,25 +6753,25 @@
         <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6">
         <v>965</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L12" s="6">
         <v>86</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O12" s="3">
         <v>840</v>
@@ -6778,7 +6786,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" s="25">
         <v>7.1</v>
@@ -6790,7 +6798,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>
@@ -6799,25 +6807,25 @@
         <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="6">
         <v>965</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L13" s="6">
         <v>86</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O13" s="3">
         <v>840</v>
@@ -6832,7 +6840,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="25">
         <v>8</v>
@@ -6844,7 +6852,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="6">
         <v>9</v>
@@ -6853,25 +6861,25 @@
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="6">
         <v>1380</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" s="6">
         <v>111</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O14" s="3">
         <v>840</v>
@@ -6886,7 +6894,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B15" s="25">
         <v>9</v>
@@ -6898,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F15" s="6">
         <v>10</v>
@@ -6907,25 +6915,25 @@
         <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="6">
         <v>1380</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L15" s="6">
         <v>111</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O15" s="3">
         <v>840</v>
@@ -6940,7 +6948,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="25">
         <v>10</v>
@@ -6952,7 +6960,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="6">
         <v>11.2</v>
@@ -6961,25 +6969,25 @@
         <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" s="6">
         <v>1520</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L16" s="6">
         <v>156</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O16" s="3">
         <v>840</v>
@@ -6994,7 +7002,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B17" s="25">
         <v>11.2</v>
@@ -7006,7 +7014,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="6">
         <v>12.5</v>
@@ -7015,25 +7023,25 @@
         <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>1520</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L17" s="6">
         <v>156</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O17" s="3">
         <v>840</v>
@@ -7048,7 +7056,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B18" s="25">
         <v>12.5</v>
@@ -7060,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="6">
         <v>14</v>
@@ -7069,25 +7077,25 @@
         <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I18" s="6">
         <v>1800</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="6">
         <v>220</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O18" s="3">
         <v>840</v>
@@ -7102,7 +7110,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B19" s="25">
         <v>14</v>
@@ -7114,7 +7122,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6">
         <v>16</v>
@@ -7123,25 +7131,25 @@
         <v>20</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="6">
         <v>1800</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L19" s="6">
         <v>220</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O19" s="3">
         <v>840</v>
@@ -7156,7 +7164,7 @@
     </row>
     <row r="20" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20" s="11">
         <v>16</v>
@@ -7168,7 +7176,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" s="12">
         <v>18</v>
@@ -7177,25 +7185,25 @@
         <v>20</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I20" s="12">
         <v>2070</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="12">
         <v>249</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O20" s="14">
         <v>840</v>
@@ -7210,17 +7218,12 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
@@ -7236,6 +7239,11 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7246,8 +7254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7278,235 +7286,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
+      <c r="A1" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
       <c r="AG1" s="39"/>
       <c r="AH1" s="39"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH2" s="76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE2" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH2" s="73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="52" t="s">
+      <c r="N3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="AA3" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="U3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52" t="s">
+      <c r="AB3" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="AB3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="74"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="77"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="75"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="74"/>
+        <v>187</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="77"/>
     </row>
     <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
@@ -7520,14 +7528,14 @@
         <v>22</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="61"/>
+        <v>260</v>
+      </c>
+      <c r="H5" s="51"/>
       <c r="I5" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>24</v>
@@ -7545,13 +7553,13 @@
         <v>28</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>24</v>
@@ -7566,44 +7574,44 @@
         <v>28</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AE5" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="21">
         <v>1000</v>
@@ -7615,7 +7623,7 @@
         <v>195</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="21">
         <v>32</v>
@@ -7668,10 +7676,10 @@
         <v>1.625107480653482</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X6" s="3">
         <v>50</v>
@@ -7689,25 +7697,25 @@
         <v>940</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH6" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="21">
         <v>1500</v>
@@ -7719,7 +7727,7 @@
         <v>195</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F7" s="21">
         <v>32</v>
@@ -7772,10 +7780,10 @@
         <v>2.1195184866723986</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X7" s="3">
         <v>53</v>
@@ -7793,25 +7801,25 @@
         <v>940</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="21">
         <v>2000</v>
@@ -7823,7 +7831,7 @@
         <v>176</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="21">
         <v>37</v>
@@ -7876,10 +7884,10 @@
         <v>2.7480653482373176</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X8" s="3">
         <v>55</v>
@@ -7897,25 +7905,25 @@
         <v>940</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="21">
         <v>2500</v>
@@ -7927,7 +7935,7 @@
         <v>224</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="21">
         <v>45</v>
@@ -7980,10 +7988,10 @@
         <v>3.163370593293207</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X9" s="3">
         <v>56</v>
@@ -8001,25 +8009,25 @@
         <v>940</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH9" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="21">
         <v>3000</v>
@@ -8031,7 +8039,7 @@
         <v>224</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="21">
         <v>55</v>
@@ -8084,10 +8092,10 @@
         <v>4.1779879621668101</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X10" s="3">
         <v>58</v>
@@ -8105,25 +8113,25 @@
         <v>940</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH10" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="21">
         <v>4000</v>
@@ -8135,7 +8143,7 @@
         <v>186</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" s="21">
         <v>37</v>
@@ -8188,10 +8196,10 @@
         <v>5.5227858985382632</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X11" s="3">
         <v>59</v>
@@ -8209,25 +8217,25 @@
         <v>940</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AH11" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="21">
         <v>5000</v>
@@ -8239,7 +8247,7 @@
         <v>226</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" s="21">
         <v>45</v>
@@ -8292,10 +8300,10 @@
         <v>7.9148753224419597</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X12" s="3">
         <v>62</v>
@@ -8313,25 +8321,25 @@
         <v>896</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH12" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B13" s="17">
         <v>6000</v>
@@ -8343,7 +8351,7 @@
         <v>226</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F13" s="17">
         <v>55</v>
@@ -8396,10 +8404,10 @@
         <v>8.1908856405846944</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X13" s="14">
         <v>64</v>
@@ -8417,20 +8425,20 @@
         <v>896</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AE13" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF13" s="32"/>
       <c r="AG13" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH13" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -8438,6 +8446,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:G2"/>
@@ -8454,29 +8485,6 @@
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
